--- a/DG167-test.xlsx
+++ b/DG167-test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janet\Desktop\Morkov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9A4C427-5752-47C6-9F85-D5221B8F36DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1C8278-A81C-4FA5-8155-2D667D502C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20865" yWindow="3360" windowWidth="15360" windowHeight="585" xr2:uid="{A19993CD-7FA7-48D9-9974-C9D745797B36}"/>
+    <workbookView xWindow="19530" yWindow="540" windowWidth="15360" windowHeight="585" xr2:uid="{A19993CD-7FA7-48D9-9974-C9D745797B36}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6843711-835B-4CB9-84A7-D93785EC665E}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -438,8 +438,436 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>